--- a/biology/Médecine/Elise_Benoit-Huguelet/Elise_Benoit-Huguelet.xlsx
+++ b/biology/Médecine/Elise_Benoit-Huguelet/Elise_Benoit-Huguelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elise Benoit-Huguelet, née en 1820 à Vauffelin et morte en 1906 à Frinvillier, est la première sage-femme de La Baroche, en Suisse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mémoires d'Elise Benoit-Huguelet (née en 1820 à Vauffelin, morte en 1906 à Frinvillier[1]) sont publiées en 1905[2],[3]. 
-Elle est alors la doyenne des sages-femmes de Suisse après avoir exercé son métier durant 63 ans[4]. Son témoignage dévoile la pratique du métier de sage-femme dans les campagnes jurassiennes au XIXe siècle[5],[3].
-Selon le Centre de recherche et de documentation du Jura bernois, son récit « nous ouvre à un univers inédit, celui des triplement muettes de l'histoire, parce que femmes, modestes et peu lettrées »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mémoires d'Elise Benoit-Huguelet (née en 1820 à Vauffelin, morte en 1906 à Frinvillier) sont publiées en 1905,. 
+Elle est alors la doyenne des sages-femmes de Suisse après avoir exercé son métier durant 63 ans. Son témoignage dévoile la pratique du métier de sage-femme dans les campagnes jurassiennes au XIXe siècle,.
+Selon le Centre de recherche et de documentation du Jura bernois, son récit « nous ouvre à un univers inédit, celui des triplement muettes de l'histoire, parce que femmes, modestes et peu lettrées ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une statue à son effigie est érigée le 7 juin 2022 sur la place du village de Vauffelin. Elle fait partie d'une série de cinq statues[N 1] de personnalités féminines de l’histoire du Jura bernois[6] créées par Helena von Beust dans le prolongement de l'exposition « ExceptionnELLES » à Bienne en 2021[7] et visant notamment à donner une plus grande visibilité aux femmes dans l'espace public[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une statue à son effigie est érigée le 7 juin 2022 sur la place du village de Vauffelin. Elle fait partie d'une série de cinq statues[N 1] de personnalités féminines de l’histoire du Jura bernois créées par Helena von Beust dans le prolongement de l'exposition « ExceptionnELLES » à Bienne en 2021 et visant notamment à donner une plus grande visibilité aux femmes dans l'espace public,.
 </t>
         </is>
       </c>
